--- a/biology/Botanique/Olea_undulata/Olea_undulata.xlsx
+++ b/biology/Botanique/Olea_undulata/Olea_undulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea undulata (Sol.) Jacq. est un taxon d'olivier appartenant au genre Olea. Il n'est pas reconnu par certaines sources.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La seule description est celle découlant de l'examen des spécimens d'herbier du Muséum National d'Histoire Naturelle (op. cit. liens externes).
 </t>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon est cité par P.S. Green (2002) comme un synonyme du taxon Olea capensis var. capensis I.Ver.[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon est cité par P.S. Green (2002) comme un synonyme du taxon Olea capensis var. capensis I.Ver.. 
 Il est également cité par P.S. Green (2002, p. 106) sous le nom d'Olea undulata var. planifolia E. Mey (1837), comme holotype B. Il est référencé par Tropicos qui donne bien Olea undulata var. planifolia comme taxon subordonné.
 Ce taxon n'est pas reconnu par NCBS/GRIN ni par d'autres sources comme eFlora. Il n'y a pas d'entrées dans Wikispecies.
 </t>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
